--- a/medicine/Médecine vétérinaire/Héctor_Lescano/Héctor_Lescano.xlsx
+++ b/medicine/Médecine vétérinaire/Héctor_Lescano/Héctor_Lescano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9ctor_Lescano</t>
+          <t>Héctor_Lescano</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Héctor Lescano Fraschini (né le 13 février 1948 à Paysandú) est un vétérinaire uruguayen, Ministre du Tourisme et des Sports du gouvernement Vázquez (2005-2010), et qui devrait être reconduit dans ces fonctions par le nouveau président José Mujica. Il préside par ailleurs le Parti démocrate chrétien et est membre du Front Líber Seregni dirigé par Danilo Astori, composante centriste de la coalition de gauche au pouvoir, le Front large. Lescano est par ailleurs vice-président de l'Internationale démocrate chrétienne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9ctor_Lescano</t>
+          <t>Héctor_Lescano</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lescano est professeur à la faculté vétérinaire de l'Université de la République de Montevideo, et fut le conseiller personnel de l'ex-recteur Jorge Brovetto, qui a été ministre de l'Education de Tabaré Vázquez et préside aujourd'hui le Front large. Lescano a été député de 1995 à 2005 de la circonscription de Montevideo et présida à la Chambre des députés la Commission de sciences et de technologie. Lors de la campagne électorale de 2004, il a été désigné par Vázquez comme coordinateur général de la commission de programmation de l'Encuentro Progresista - Frente Amplio.
 Lors de ses études, il fut secrétaire général de la Jeunesse démocratique chrétienne, puis secrétaire général du Parti démocrate chrétien, qu'il préside aujourd'hui. 
